--- a/result/IPIzero.xlsx
+++ b/result/IPIzero.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/db8eac9eaa5b2f1d/デスクトップ/08_点検/result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{7F494F6D-4994-454E-AC1A-4D3C1589EA43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C53D02D-BA5A-417C-9DCB-31F0E83DA33F}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{7F494F6D-4994-454E-AC1A-4D3C1589EA43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{059CFCA0-B919-4C55-9C5B-DCE35A190404}"/>
   <bookViews>
     <workbookView xWindow="38235" yWindow="4905" windowWidth="19365" windowHeight="10275" xr2:uid="{8D1FB9C9-E3F1-48CA-B13E-1F18FA0219A3}"/>
   </bookViews>
